--- a/data/trans_bre/P36B02_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P36B02_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2818474656384876</v>
+        <v>0.5120350170481316</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.306454268012472</v>
+        <v>1.195038916718391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.21697634858143</v>
+        <v>2.323954458443935</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.88195291552999</v>
+        <v>1.382950355167605</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.003398105754975906</v>
+        <v>0.005550596493537141</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.014517809228672</v>
+        <v>0.01284767009728169</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02422216068715434</v>
+        <v>0.0250083220516716</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.02178535423090787</v>
+        <v>0.01624714048898434</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.566887555519065</v>
+        <v>4.651398105131802</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.785355004887817</v>
+        <v>6.132853839608968</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.189754384504561</v>
+        <v>7.477237599185453</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.897427578972922</v>
+        <v>8.411042243296816</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05072391619563129</v>
+        <v>0.05187579594008803</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06462197073724452</v>
+        <v>0.06844386755216213</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08081257897603088</v>
+        <v>0.08411603271560035</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1115496350470041</v>
+        <v>0.1049314085970851</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.500618502076324</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.348979393950889</v>
+        <v>1.348979393950855</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007703413623447495</v>
@@ -749,7 +749,7 @@
         <v>0.02741385581558518</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.01544167872035291</v>
+        <v>0.01544167872035252</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.103715852139387</v>
+        <v>-1.168440198441063</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.056932781880573</v>
+        <v>-2.125550456720348</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8595983784333824</v>
+        <v>0.8280300248317748</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.6360140109382533</v>
+        <v>-0.4366537754835963</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01177253309056646</v>
+        <v>-0.01262580652025703</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02179416773636918</v>
+        <v>-0.0224214683779293</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.009356422741036858</v>
+        <v>0.008932427350396727</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.007242846947375698</v>
+        <v>-0.004947961343718283</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.45530985754709</v>
+        <v>2.407844944146903</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.245636094612894</v>
+        <v>1.093285364416302</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.219710550286612</v>
+        <v>4.161335454023092</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.531410453249845</v>
+        <v>3.55509283558992</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.026713027030163</v>
+        <v>0.02599368114369435</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01339449790655033</v>
+        <v>0.01166953474226706</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04729958465272299</v>
+        <v>0.04600197030120325</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.0411013670939496</v>
+        <v>0.04118796654400059</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.13666307460032</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.613798862751036</v>
+        <v>0.6137988627510471</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02074895650523498</v>
@@ -849,7 +849,7 @@
         <v>-0.02260383317443145</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.006922798314794076</v>
+        <v>0.006922798314794202</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2843291367868647</v>
+        <v>-0.6663571699854365</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.217621666913891</v>
+        <v>-3.743669261331945</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.332892011931631</v>
+        <v>-4.895214814889571</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.628867494788104</v>
+        <v>-2.299507872010268</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.00264535452675608</v>
+        <v>-0.006841299812753217</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.03369838590891894</v>
+        <v>-0.0391892984519882</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.05756056124730456</v>
+        <v>-0.05147153254294889</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.02886000610965427</v>
+        <v>-0.02517821170220931</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.677993519320208</v>
+        <v>4.508044708005232</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.127964477640588</v>
+        <v>2.976997893438815</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.089795373592085</v>
+        <v>0.9720721996452418</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.891715651361218</v>
+        <v>4.096277945987182</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.05043395303267414</v>
+        <v>0.04819480251160426</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03416421895136411</v>
+        <v>0.03234315723011288</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01164340720474573</v>
+        <v>0.01028665802297512</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.04482868981093837</v>
+        <v>0.04718455351786362</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.348440748664016</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.815645538211863</v>
+        <v>1.815645538211852</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01538686328443688</v>
@@ -949,7 +949,7 @@
         <v>0.02559809815790925</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.02082607132831447</v>
+        <v>0.02082607132831435</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3384333181361648</v>
+        <v>0.1477182560094944</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.3859011223464553</v>
+        <v>-0.3051893359592728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.088113258866859</v>
+        <v>1.022465831107394</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.317421146721112</v>
+        <v>0.3106984468502393</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.003624409155525689</v>
+        <v>0.001627622275431943</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.004136811502364333</v>
+        <v>-0.003245567091701462</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01158710525525511</v>
+        <v>0.01101309874744818</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.00360146590706254</v>
+        <v>0.003661815387742735</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.785043233127321</v>
+        <v>2.674279269159337</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.053941780727973</v>
+        <v>1.979925387642838</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.638598803108681</v>
+        <v>3.504797833212252</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.376979422543782</v>
+        <v>3.517037921443877</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03023074026778715</v>
+        <v>0.02915325585559325</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02215449402507187</v>
+        <v>0.0214211408864447</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03946335685744411</v>
+        <v>0.03856302258245946</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03914139863527873</v>
+        <v>0.04099264100013613</v>
       </c>
     </row>
     <row r="16">
